--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\2024-04-16-Barbarian Prince\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DF9B6-AF8B-41CA-A57F-B509773B349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9751601-DD99-4CFF-BC4F-AE7C9C37190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26715" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -33517,181 +33517,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> &lt;Bold&gt;e105a Violent Weather&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is blown out of control by gigantic winds. Roll one die for the direction you are blown instead of making your normal travel move:
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;   1-N, 2-NE, 3-SE, 4-S, 5-SW, 6-NW
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die again and halve the number rounded up for the number of hexes your party is blown.
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash into the final hex. Your flying mount is killed and you roll one die for wounds suffered: 
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;All other members of your party are blown off course and lost to you.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AirViolentWeather</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ViolentWeather</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e079b Heavy Rains Continues With Mounts&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you travel at all &lt;InlineUIContainer&gt;&lt;Button Content='r204' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, any characters who have not caught cold must risk it. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you ride your mounts, they may catch pneumonia. Roll one die for each. If they roll a 5 plus, they fall sick and die. You can &lt;InlineUIContainer&gt;&lt;Button Content='Dismount' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and walk with the animals and avoid them getting sick. 
@@ -33718,6 +33543,181 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='220'  Width='440'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;Bold&gt;e105a Violent Weather&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is blown out of control by gigantic winds. Roll one die for the direction you are blown instead of making your normal travel move: 
+&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;   1-N, 2-NE, 3-SE, 4-S, 5-SW, 6-NW
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die again and halve the number rounded up for the number of hexes your party is blown: 
+&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash into the final hex. Your flying mount is killed and you roll one die for wounds suffered: 
+&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;All other members of your party are blown off course and lost to you.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                     &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirViolentWeather</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ViolentWeather</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -34191,8 +34191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:XFD559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B557" sqref="B557"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52420,7 +52420,7 @@
         <v>978</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52836,7 +52836,7 @@
         <v>242</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="120" x14ac:dyDescent="0.25">

--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9751601-DD99-4CFF-BC4F-AE7C9C37190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD62655C-CB13-4E72-8E7B-31F5BCC6DBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -34192,7 +34192,7 @@
   <dimension ref="A1:XFD559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD62655C-CB13-4E72-8E7B-31F5BCC6DBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E2018E-668C-4F79-A18A-54BFAD65E0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-25620" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -827,17 +827,6 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='r309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surprised</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;e107 Falcon Scout&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;A friendly falcon joins your party if offered one unit of food
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- right now. For the rest of today, you cannot get lost.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Tonight, at the evening meal
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;,
- if you offer it a second food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This can continue day after day provided you feed it a food unit at the evening meal and roll anything but a six.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The falcon can only act as a guide. It has no combat skill or endurance value. Any wound will kill it.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;e110 Air Spirit&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter an air spirit. Only a magician, wizard, witch, or monk in your party will recognize it. If you cannot recognize it, this event ends. If you do recognize it, you can attempt communications if you wish.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die. If the roll equals or exceeds your wit and wiles, communication fails. The air spirit becomes confused and blows you off course. 
@@ -33718,6 +33707,61 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='200' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e107 Falcon Scout&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;A friendly falcon joins your party if you &lt;InlineUIContainer&gt;&lt;Button Content='Feed' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; one unit of food
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ right now. For the rest of today, you cannot get lost.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Tonight, at the evening meal
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;,
+ if you offer it a second food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This can continue day after day provided you feed it a food unit at the evening meal and roll anything but a six.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The falcon can only act as a guide. It has no combat skill or endurance value. Any wound will kill it. Click image to continue if not feeding.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FalconNoFeed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Falcon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -34191,8 +34235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:XFD559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="B284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34206,31 +34250,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:16384" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:16384" ht="390" x14ac:dyDescent="0.25">
@@ -34238,7 +34282,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -34246,7 +34290,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="285" x14ac:dyDescent="0.25">
@@ -34254,7 +34298,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -50644,7 +50688,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:16384" ht="165" x14ac:dyDescent="0.25">
@@ -50652,15 +50696,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
@@ -50668,7 +50712,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12" spans="1:16384" ht="210" x14ac:dyDescent="0.25">
@@ -50676,7 +50720,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -50684,7 +50728,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -50692,7 +50736,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:16384" ht="240" x14ac:dyDescent="0.25">
@@ -50700,7 +50744,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16" spans="1:16384" ht="210" x14ac:dyDescent="0.25">
@@ -50708,7 +50752,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50716,7 +50760,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50724,7 +50768,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50732,7 +50776,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50740,7 +50784,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50748,7 +50792,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50756,7 +50800,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50764,7 +50808,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50772,7 +50816,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -50780,7 +50824,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50788,39 +50832,39 @@
         <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50828,7 +50872,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -50836,7 +50880,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50844,23 +50888,23 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50868,23 +50912,23 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -50892,23 +50936,23 @@
         <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -50916,7 +50960,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -50924,7 +50968,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -50932,7 +50976,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -50940,23 +50984,23 @@
         <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -50964,7 +51008,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -50972,7 +51016,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -50980,7 +51024,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -50988,79 +51032,79 @@
         <v>34</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51068,7 +51112,7 @@
         <v>35</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51076,23 +51120,23 @@
         <v>36</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51100,7 +51144,7 @@
         <v>37</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -51108,7 +51152,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51116,7 +51160,7 @@
         <v>43</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51124,23 +51168,23 @@
         <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51148,7 +51192,7 @@
         <v>39</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51156,7 +51200,7 @@
         <v>40</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51164,7 +51208,7 @@
         <v>41</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51172,7 +51216,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51180,7 +51224,7 @@
         <v>42</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51188,7 +51232,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51196,7 +51240,7 @@
         <v>47</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51204,7 +51248,7 @@
         <v>48</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51212,7 +51256,7 @@
         <v>49</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51220,7 +51264,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51228,7 +51272,7 @@
         <v>51</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51236,7 +51280,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51244,7 +51288,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -51252,7 +51296,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51260,7 +51304,7 @@
         <v>55</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51268,7 +51312,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51276,7 +51320,7 @@
         <v>57</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -51284,31 +51328,31 @@
         <v>58</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>832</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51316,15 +51360,15 @@
         <v>59</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51332,15 +51376,15 @@
         <v>60</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -51348,7 +51392,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51356,15 +51400,15 @@
         <v>62</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51372,7 +51416,7 @@
         <v>63</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -51380,7 +51424,7 @@
         <v>64</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51388,7 +51432,7 @@
         <v>65</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -51396,15 +51440,15 @@
         <v>66</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51412,15 +51456,15 @@
         <v>67</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -51428,23 +51472,23 @@
         <v>68</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -51452,23 +51496,23 @@
         <v>69</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51476,23 +51520,23 @@
         <v>70</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51500,7 +51544,7 @@
         <v>71</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51508,7 +51552,7 @@
         <v>72</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51516,15 +51560,15 @@
         <v>73</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51532,7 +51576,7 @@
         <v>74</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -51540,15 +51584,15 @@
         <v>75</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -51556,7 +51600,7 @@
         <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -51564,23 +51608,23 @@
         <v>77</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>1006</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51588,23 +51632,23 @@
         <v>78</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51612,23 +51656,23 @@
         <v>79</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51636,7 +51680,7 @@
         <v>80</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51644,87 +51688,87 @@
         <v>81</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>1022</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51732,7 +51776,7 @@
         <v>82</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51740,15 +51784,15 @@
         <v>83</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51756,7 +51800,7 @@
         <v>84</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51764,23 +51808,23 @@
         <v>85</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51788,7 +51832,7 @@
         <v>86</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51796,23 +51840,23 @@
         <v>87</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -51820,71 +51864,71 @@
         <v>88</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51892,31 +51936,31 @@
         <v>89</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51924,23 +51968,23 @@
         <v>90</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51948,15 +51992,15 @@
         <v>91</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51964,7 +52008,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51972,7 +52016,7 @@
         <v>93</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -51980,7 +52024,7 @@
         <v>94</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51988,7 +52032,7 @@
         <v>95</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51996,55 +52040,55 @@
         <v>96</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>922</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52052,7 +52096,7 @@
         <v>97</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52060,7 +52104,7 @@
         <v>98</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52068,7 +52112,7 @@
         <v>99</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52076,7 +52120,7 @@
         <v>101</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52084,7 +52128,7 @@
         <v>100</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52092,7 +52136,7 @@
         <v>102</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52100,7 +52144,7 @@
         <v>103</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52108,7 +52152,7 @@
         <v>104</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52116,23 +52160,23 @@
         <v>105</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52140,7 +52184,7 @@
         <v>106</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52148,7 +52192,7 @@
         <v>107</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52156,15 +52200,15 @@
         <v>165</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52172,7 +52216,7 @@
         <v>108</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -52180,7 +52224,7 @@
         <v>109</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52188,7 +52232,7 @@
         <v>110</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -52196,7 +52240,7 @@
         <v>166</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52204,7 +52248,7 @@
         <v>167</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52212,23 +52256,23 @@
         <v>168</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52236,39 +52280,39 @@
         <v>111</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52276,7 +52320,7 @@
         <v>112</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52284,7 +52328,7 @@
         <v>169</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -52292,7 +52336,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52300,7 +52344,7 @@
         <v>171</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52308,7 +52352,7 @@
         <v>113</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52316,23 +52360,23 @@
         <v>114</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52340,15 +52384,15 @@
         <v>115</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52356,15 +52400,15 @@
         <v>116</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="224" spans="1:2" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -52372,31 +52416,31 @@
         <v>117</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="225" spans="1:2" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="226" spans="1:2" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="227" spans="1:2" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52404,23 +52448,23 @@
         <v>118</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52428,23 +52472,23 @@
         <v>119</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52452,7 +52496,7 @@
         <v>120</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52460,7 +52504,7 @@
         <v>172</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52468,7 +52512,7 @@
         <v>173</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52476,7 +52520,7 @@
         <v>174</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52484,7 +52528,7 @@
         <v>121</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52492,15 +52536,15 @@
         <v>122</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52508,23 +52552,23 @@
         <v>123</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52532,7 +52576,7 @@
         <v>124</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52540,15 +52584,15 @@
         <v>125</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52556,7 +52600,7 @@
         <v>126</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52564,7 +52608,7 @@
         <v>127</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52572,7 +52616,7 @@
         <v>128</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52580,7 +52624,7 @@
         <v>129</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52588,7 +52632,7 @@
         <v>130</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52596,23 +52640,23 @@
         <v>131</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>995</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52620,7 +52664,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52628,15 +52672,15 @@
         <v>133</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52644,23 +52688,23 @@
         <v>134</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>1052</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>1054</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52668,15 +52712,15 @@
         <v>135</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52684,7 +52728,7 @@
         <v>136</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52692,7 +52736,7 @@
         <v>137</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52700,7 +52744,7 @@
         <v>232</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52708,7 +52752,7 @@
         <v>233</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -52716,7 +52760,7 @@
         <v>138</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52724,7 +52768,7 @@
         <v>234</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52732,7 +52776,7 @@
         <v>235</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52740,7 +52784,7 @@
         <v>139</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52748,7 +52792,7 @@
         <v>239</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52756,7 +52800,7 @@
         <v>240</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52764,7 +52808,7 @@
         <v>241</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52772,7 +52816,7 @@
         <v>140</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52804,7 +52848,7 @@
         <v>141</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -52812,7 +52856,7 @@
         <v>142</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52820,7 +52864,7 @@
         <v>143</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52828,7 +52872,7 @@
         <v>144</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52836,7 +52880,7 @@
         <v>242</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52844,15 +52888,15 @@
         <v>145</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>257</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52860,7 +52904,7 @@
         <v>147</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52868,7 +52912,7 @@
         <v>148</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52876,7 +52920,7 @@
         <v>149</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52884,7 +52928,7 @@
         <v>150</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -52892,7 +52936,7 @@
         <v>151</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52900,7 +52944,7 @@
         <v>243</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52908,7 +52952,7 @@
         <v>244</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52916,7 +52960,7 @@
         <v>245</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52924,7 +52968,7 @@
         <v>152</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52932,7 +52976,7 @@
         <v>153</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52940,7 +52984,7 @@
         <v>154</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52948,7 +52992,7 @@
         <v>155</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52956,7 +53000,7 @@
         <v>156</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52964,7 +53008,7 @@
         <v>157</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52972,7 +53016,7 @@
         <v>246</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52980,7 +53024,7 @@
         <v>247</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52988,7 +53032,7 @@
         <v>248</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52996,7 +53040,7 @@
         <v>158</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53004,7 +53048,7 @@
         <v>159</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53012,7 +53056,7 @@
         <v>160</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="240" x14ac:dyDescent="0.25">
@@ -53020,7 +53064,7 @@
         <v>161</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -53028,31 +53072,31 @@
         <v>162</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -53060,7 +53104,7 @@
         <v>163</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -53068,7 +53112,7 @@
         <v>164</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -53076,7 +53120,7 @@
         <v>175</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -53084,7 +53128,7 @@
         <v>176</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C313" s="1"/>
     </row>
@@ -53093,60 +53137,60 @@
         <v>177</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C314" s="1"/>
     </row>
     <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C316" s="1"/>
     </row>
     <row r="317" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C317" s="1"/>
     </row>
     <row r="318" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B318" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="390" x14ac:dyDescent="0.25">
@@ -53154,34 +53198,34 @@
         <v>178</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C324" s="1"/>
     </row>
@@ -53190,7 +53234,7 @@
         <v>179</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C325" s="1"/>
     </row>
@@ -53199,7 +53243,7 @@
         <v>249</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C326" s="1"/>
     </row>
@@ -53208,7 +53252,7 @@
         <v>250</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C327" s="1"/>
     </row>
@@ -53217,7 +53261,7 @@
         <v>251</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -53225,7 +53269,7 @@
         <v>252</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -53233,23 +53277,23 @@
         <v>253</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -53257,7 +53301,7 @@
         <v>180</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -53265,15 +53309,15 @@
         <v>181</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -53281,7 +53325,7 @@
         <v>182</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53289,7 +53333,7 @@
         <v>183</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53297,15 +53341,15 @@
         <v>184</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B339" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53313,7 +53357,7 @@
         <v>185</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53321,7 +53365,7 @@
         <v>186</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53329,15 +53373,15 @@
         <v>187</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B343" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53345,7 +53389,7 @@
         <v>188</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53353,23 +53397,23 @@
         <v>189</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B347" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53377,7 +53421,7 @@
         <v>190</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -53385,7 +53429,7 @@
         <v>191</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53393,15 +53437,15 @@
         <v>192</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B351" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="B351" s="4" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -53409,23 +53453,23 @@
         <v>193</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53433,7 +53477,7 @@
         <v>194</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -53441,7 +53485,7 @@
         <v>195</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53449,15 +53493,15 @@
         <v>196</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53465,15 +53509,15 @@
         <v>197</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B360" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53481,7 +53525,7 @@
         <v>198</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53489,7 +53533,7 @@
         <v>199</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53497,7 +53541,7 @@
         <v>200</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53505,7 +53549,7 @@
         <v>201</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53513,7 +53557,7 @@
         <v>202</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53521,47 +53565,47 @@
         <v>203</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -53569,55 +53613,55 @@
         <v>204</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -53625,55 +53669,55 @@
         <v>205</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53681,7 +53725,7 @@
         <v>206</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53689,7 +53733,7 @@
         <v>207</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53697,7 +53741,7 @@
         <v>208</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53705,55 +53749,55 @@
         <v>209</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="394" spans="1:2" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53761,63 +53805,63 @@
         <v>210</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B403" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53825,7 +53869,7 @@
         <v>211</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53833,39 +53877,39 @@
         <v>212</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -53873,7 +53917,7 @@
         <v>213</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -53881,7 +53925,7 @@
         <v>214</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -53889,7 +53933,7 @@
         <v>215</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53897,7 +53941,7 @@
         <v>216</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53905,7 +53949,7 @@
         <v>217</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53913,7 +53957,7 @@
         <v>218</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53921,7 +53965,7 @@
         <v>219</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53929,7 +53973,7 @@
         <v>220</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53937,7 +53981,7 @@
         <v>221</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -53945,7 +53989,7 @@
         <v>222</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -53953,7 +53997,7 @@
         <v>223</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53961,23 +54005,23 @@
         <v>224</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53985,7 +54029,7 @@
         <v>225</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53993,7 +54037,7 @@
         <v>226</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -54001,7 +54045,7 @@
         <v>227</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -54009,7 +54053,7 @@
         <v>228</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -54017,7 +54061,7 @@
         <v>229</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -54025,7 +54069,7 @@
         <v>230</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -54033,1039 +54077,1039 @@
         <v>231</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B436" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="B436" s="4" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B441" s="4" t="s">
         <v>1105</v>
-      </c>
-      <c r="B441" s="4" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B445" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B445" s="4" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B451" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="B451" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B505" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B509" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="B509" s="4" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B528" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B549" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B556" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B558" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="B558" s="4" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E2018E-668C-4F79-A18A-54BFAD65E0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADDB2AA-D3F1-4864-8625-854A9F175FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25620" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -34235,8 +34235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:XFD559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B284" sqref="B284"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADDB2AA-D3F1-4864-8625-854A9F175FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFCD6986-FECC-4EA0-89AE-EF0866025916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -33228,96 +33228,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e109 Wild Pegasus&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a wild Pegasus. Each character in your party is allowed one attempt to capture it.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the result is 5 plus, the character captures the Pegasus. You may add it as a winged mount to your party.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pegasus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EncounterEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e106 Heavy Overcast&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Thick, black clouds obscure your vision. You realize you are becoming lost. Roll one die for directions: 
 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -33762,6 +33672,56 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e109 Wild Pegasus&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a wild Pegasus. Each character in your party is allowed one attempt to capture it.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If the result is 5 plus, the character captures the Pegasus. You may add it as a winged mount to your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click image to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegasus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PegasusCapture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -33895,7 +33855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -33909,13 +33869,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -33937,9 +33893,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -33977,7 +33933,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -34083,7 +34039,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -34225,7 +34181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -52411,35 +52367,35 @@
         <v>787</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+    <row r="224" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="5" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="225" spans="1:2" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+    <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="226" spans="1:2" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+    <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="5" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="227" spans="1:2" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>979</v>
       </c>
     </row>
@@ -52464,7 +52420,7 @@
         <v>977</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52872,7 +52828,7 @@
         <v>144</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52880,7 +52836,7 @@
         <v>242</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52888,7 +52844,7 @@
         <v>145</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52896,7 +52852,7 @@
         <v>146</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52912,7 +52868,7 @@
         <v>148</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -53784,11 +53740,11 @@
         <v>684</v>
       </c>
     </row>
-    <row r="394" spans="1:2" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A394" s="5" t="s">
+    <row r="394" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B394" s="6" t="s">
+      <c r="B394" s="5" t="s">
         <v>685</v>
       </c>
     </row>
@@ -53969,7 +53925,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A417" s="8" t="s">
+      <c r="A417" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B417" s="4" t="s">

--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFCD6986-FECC-4EA0-89AE-EF0866025916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D8258E-E654-48EE-BFA2-438844E8C076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -797,36 +797,6 @@
     <t>e130e</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;e101a Evade Harpy&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Inquiry&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r329' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Looter&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Looter&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r308' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Surprised&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r310' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Suprised</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e101b Fight Harpy&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r313' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Escape-Fly&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r326' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r327' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r328' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r329' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Pass</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e101b Fight Harpy&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r302' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Surprise&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r304' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r305' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r305' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surprised</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;e110 Air Spirit&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter an air spirit. Only a magician, wizard, witch, or monk in your party will recognize it. If you cannot recognize it, this event ends. If you do recognize it, you can attempt communications if you wish.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die. If the roll equals or exceeds your wit and wiles, communication fails. The air spirit becomes confused and blows you off course. 
@@ -1030,17 +1000,6 @@
   </si>
   <si>
     <t>e312b</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e101 Harpy&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encournted a Harpy, a bird-woman with combat skill 5, endurance 4, and wealth 4. Hapiers are known as dirty, nasty things. Occasionally, they have allied with human for mutual gain.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e101a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Talk&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Name='Evade' Content='e101b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Evade&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e101c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - Fight
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the Harpy joins your party, she has her own wings and can travel airborne without a winged mount. She also counts as travelling on a normal mount because the wings allow her to make long 'airlifted' hops as well.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;e312a Partial Mounted Escape&lt;/Bold&gt;  &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
@@ -16939,58 +16898,6 @@
     <t>e077a</t>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e077 Herd of Wild Horses&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You surprise a herd of wild horses. Each character in your party can capture one giving you that many additional mounts. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;However, you must spend tomorrow resting
- &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- in order to train the captures. If you have a magician, wizard, or witch in your party; they can cast a spell that trains the animal instantly. No extra day is needed. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click image to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Herd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Herd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='150' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>e083a</t>
   </si>
   <si>
@@ -33723,6 +33630,383 @@
       </rPr>
       <t>' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e077 Herd of Wild Horses&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You surprise a herd of wild horses.  &lt;InlineUIContainer&gt;&lt;Button Content='Ignore' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ them and continue or capture them. Each character in your party can capture one giving you that many additional mounts. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;However, you must spend tomorrow resting
+ &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ in order to train the captures. If you have a magician, wizard, or witch in your party; they can cast a spell that trains the animal instantly. No extra day is needed. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click image to capture horses.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Herd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Herd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='150' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e101b Fight Harpy&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r313' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Escape-Fly&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r326' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r327' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r328' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r329' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Pass
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300'  Width='265' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e101b Fight Harpy&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r302' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Surprise&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r304' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r305' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r305' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surprised
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300'  Width='265' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e101a Evade Harpy&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Inquiry&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r329' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Looter&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Looter&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r308' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Surprised&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r310' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Suprised
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll die:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21'  Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300'  Width='265' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;e101 Harpy&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a Harpy, a bird-woman with combat skill 5, endurance 4, and wealth 4. Hapiers are known as dirty, nasty things. Occasionally, they have allied with human for mutual gain.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e101a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e101a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e101b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e101b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e101c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e101c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the Harpy joins your party, she has her own wings and can travel airborne without a winged mount. She also counts as travelling on a normal mount because the wings allow her to make long 'airlifted' hops as well.</t>
   </si>
 </sst>
 </file>
@@ -34191,8 +34475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:XFD559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34206,31 +34490,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:16384" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:16384" ht="390" x14ac:dyDescent="0.25">
@@ -34238,7 +34522,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -34246,7 +34530,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="285" x14ac:dyDescent="0.25">
@@ -34254,7 +34538,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -50644,7 +50928,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:16384" ht="165" x14ac:dyDescent="0.25">
@@ -50652,15 +50936,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
@@ -50668,7 +50952,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="12" spans="1:16384" ht="210" x14ac:dyDescent="0.25">
@@ -50676,7 +50960,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -50684,7 +50968,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -50692,7 +50976,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:16384" ht="240" x14ac:dyDescent="0.25">
@@ -50700,7 +50984,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:16384" ht="210" x14ac:dyDescent="0.25">
@@ -50708,7 +50992,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50716,7 +51000,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50724,7 +51008,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50732,7 +51016,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50740,7 +51024,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50748,7 +51032,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -50756,7 +51040,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50764,7 +51048,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50772,7 +51056,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -50780,7 +51064,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50788,39 +51072,39 @@
         <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50828,7 +51112,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -50836,7 +51120,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -50844,23 +51128,23 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -50868,23 +51152,23 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -50892,23 +51176,23 @@
         <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -50916,7 +51200,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -50924,7 +51208,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -50932,7 +51216,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -50940,23 +51224,23 @@
         <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -50964,7 +51248,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -50972,7 +51256,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -50980,7 +51264,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -50988,79 +51272,79 @@
         <v>34</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51068,7 +51352,7 @@
         <v>35</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51076,23 +51360,23 @@
         <v>36</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51100,7 +51384,7 @@
         <v>37</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -51108,7 +51392,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51116,7 +51400,7 @@
         <v>43</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51124,23 +51408,23 @@
         <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51148,7 +51432,7 @@
         <v>39</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51156,7 +51440,7 @@
         <v>40</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51164,7 +51448,7 @@
         <v>41</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51172,7 +51456,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51180,7 +51464,7 @@
         <v>42</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51188,7 +51472,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51196,7 +51480,7 @@
         <v>47</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51204,7 +51488,7 @@
         <v>48</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51212,7 +51496,7 @@
         <v>49</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51220,7 +51504,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51228,7 +51512,7 @@
         <v>51</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51236,7 +51520,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51244,7 +51528,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -51252,7 +51536,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51260,7 +51544,7 @@
         <v>55</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51268,7 +51552,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51276,7 +51560,7 @@
         <v>57</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -51284,31 +51568,31 @@
         <v>58</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51316,15 +51600,15 @@
         <v>59</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51332,15 +51616,15 @@
         <v>60</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -51348,7 +51632,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51356,15 +51640,15 @@
         <v>62</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51372,7 +51656,7 @@
         <v>63</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -51380,7 +51664,7 @@
         <v>64</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51388,7 +51672,7 @@
         <v>65</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -51396,15 +51680,15 @@
         <v>66</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51412,15 +51696,15 @@
         <v>67</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -51428,23 +51712,23 @@
         <v>68</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -51452,23 +51736,23 @@
         <v>69</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51476,23 +51760,23 @@
         <v>70</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51500,7 +51784,7 @@
         <v>71</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51508,7 +51792,7 @@
         <v>72</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51516,15 +51800,15 @@
         <v>73</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51532,7 +51816,7 @@
         <v>74</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -51540,15 +51824,15 @@
         <v>75</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -51556,7 +51840,7 @@
         <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -51564,23 +51848,23 @@
         <v>77</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51588,23 +51872,23 @@
         <v>78</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51612,23 +51896,23 @@
         <v>79</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51636,7 +51920,7 @@
         <v>80</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51644,87 +51928,87 @@
         <v>81</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51732,7 +52016,7 @@
         <v>82</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51740,15 +52024,15 @@
         <v>83</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51756,7 +52040,7 @@
         <v>84</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51764,23 +52048,23 @@
         <v>85</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51788,7 +52072,7 @@
         <v>86</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51796,23 +52080,23 @@
         <v>87</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -51820,71 +52104,71 @@
         <v>88</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51892,31 +52176,31 @@
         <v>89</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51924,23 +52208,23 @@
         <v>90</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51948,15 +52232,15 @@
         <v>91</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51964,7 +52248,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51972,7 +52256,7 @@
         <v>93</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -51980,7 +52264,7 @@
         <v>94</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51988,7 +52272,7 @@
         <v>95</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51996,55 +52280,55 @@
         <v>96</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52052,7 +52336,7 @@
         <v>97</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52060,7 +52344,7 @@
         <v>98</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52068,7 +52352,7 @@
         <v>99</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52076,7 +52360,7 @@
         <v>101</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52084,7 +52368,7 @@
         <v>100</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52092,7 +52376,7 @@
         <v>102</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52100,7 +52384,7 @@
         <v>103</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52108,7 +52392,7 @@
         <v>104</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52116,23 +52400,23 @@
         <v>105</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52140,7 +52424,7 @@
         <v>106</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52148,7 +52432,7 @@
         <v>107</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52156,15 +52440,15 @@
         <v>165</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52172,7 +52456,7 @@
         <v>108</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -52180,7 +52464,7 @@
         <v>109</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52188,7 +52472,7 @@
         <v>110</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -52196,7 +52480,7 @@
         <v>166</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52204,7 +52488,7 @@
         <v>167</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52212,23 +52496,23 @@
         <v>168</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52236,39 +52520,39 @@
         <v>111</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52276,7 +52560,7 @@
         <v>112</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52284,7 +52568,7 @@
         <v>169</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -52292,7 +52576,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52300,7 +52584,7 @@
         <v>171</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52308,7 +52592,7 @@
         <v>113</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52316,23 +52600,23 @@
         <v>114</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52340,31 +52624,31 @@
         <v>115</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>782</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52372,31 +52656,31 @@
         <v>117</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52404,23 +52688,23 @@
         <v>118</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52428,23 +52712,23 @@
         <v>119</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52452,7 +52736,7 @@
         <v>120</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52460,7 +52744,7 @@
         <v>172</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52468,7 +52752,7 @@
         <v>173</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52476,7 +52760,7 @@
         <v>174</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52484,7 +52768,7 @@
         <v>121</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52492,15 +52776,15 @@
         <v>122</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52508,23 +52792,23 @@
         <v>123</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52532,7 +52816,7 @@
         <v>124</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52540,15 +52824,15 @@
         <v>125</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52556,7 +52840,7 @@
         <v>126</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52564,7 +52848,7 @@
         <v>127</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52572,7 +52856,7 @@
         <v>128</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52580,7 +52864,7 @@
         <v>129</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52588,7 +52872,7 @@
         <v>130</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52596,23 +52880,23 @@
         <v>131</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52620,7 +52904,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52628,15 +52912,15 @@
         <v>133</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52644,23 +52928,23 @@
         <v>134</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52668,15 +52952,15 @@
         <v>135</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52684,7 +52968,7 @@
         <v>136</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52692,7 +52976,7 @@
         <v>137</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52700,7 +52984,7 @@
         <v>232</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52708,7 +52992,7 @@
         <v>233</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -52716,7 +53000,7 @@
         <v>138</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52724,7 +53008,7 @@
         <v>234</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52732,7 +53016,7 @@
         <v>235</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52740,7 +53024,7 @@
         <v>139</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52748,7 +53032,7 @@
         <v>239</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52756,7 +53040,7 @@
         <v>240</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52764,39 +53048,39 @@
         <v>241</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>256</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -52804,7 +53088,7 @@
         <v>141</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -52812,7 +53096,7 @@
         <v>142</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52820,7 +53104,7 @@
         <v>143</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52828,7 +53112,7 @@
         <v>144</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52836,7 +53120,7 @@
         <v>242</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52844,7 +53128,7 @@
         <v>145</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52852,7 +53136,7 @@
         <v>146</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52860,7 +53144,7 @@
         <v>147</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52868,7 +53152,7 @@
         <v>148</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52876,7 +53160,7 @@
         <v>149</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52884,7 +53168,7 @@
         <v>150</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -52892,7 +53176,7 @@
         <v>151</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52900,7 +53184,7 @@
         <v>243</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52908,7 +53192,7 @@
         <v>244</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52916,7 +53200,7 @@
         <v>245</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52924,7 +53208,7 @@
         <v>152</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52932,7 +53216,7 @@
         <v>153</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52940,7 +53224,7 @@
         <v>154</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52948,7 +53232,7 @@
         <v>155</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52956,7 +53240,7 @@
         <v>156</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52964,7 +53248,7 @@
         <v>157</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52972,7 +53256,7 @@
         <v>246</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52980,7 +53264,7 @@
         <v>247</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52988,7 +53272,7 @@
         <v>248</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52996,7 +53280,7 @@
         <v>158</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53004,7 +53288,7 @@
         <v>159</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53012,7 +53296,7 @@
         <v>160</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="240" x14ac:dyDescent="0.25">
@@ -53020,7 +53304,7 @@
         <v>161</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -53028,31 +53312,31 @@
         <v>162</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -53060,7 +53344,7 @@
         <v>163</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -53068,7 +53352,7 @@
         <v>164</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -53076,7 +53360,7 @@
         <v>175</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -53084,7 +53368,7 @@
         <v>176</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C313" s="1"/>
     </row>
@@ -53093,60 +53377,60 @@
         <v>177</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C314" s="1"/>
     </row>
     <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C316" s="1"/>
     </row>
     <row r="317" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C317" s="1"/>
     </row>
     <row r="318" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="390" x14ac:dyDescent="0.25">
@@ -53154,34 +53438,34 @@
         <v>178</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C324" s="1"/>
     </row>
@@ -53190,7 +53474,7 @@
         <v>179</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C325" s="1"/>
     </row>
@@ -53199,7 +53483,7 @@
         <v>249</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C326" s="1"/>
     </row>
@@ -53208,7 +53492,7 @@
         <v>250</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C327" s="1"/>
     </row>
@@ -53217,7 +53501,7 @@
         <v>251</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -53225,7 +53509,7 @@
         <v>252</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -53233,23 +53517,23 @@
         <v>253</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B331" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -53257,7 +53541,7 @@
         <v>180</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -53265,15 +53549,15 @@
         <v>181</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -53281,7 +53565,7 @@
         <v>182</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53289,7 +53573,7 @@
         <v>183</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53297,15 +53581,15 @@
         <v>184</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53313,7 +53597,7 @@
         <v>185</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53321,7 +53605,7 @@
         <v>186</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53329,15 +53613,15 @@
         <v>187</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53345,7 +53629,7 @@
         <v>188</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53353,23 +53637,23 @@
         <v>189</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53377,7 +53661,7 @@
         <v>190</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -53385,7 +53669,7 @@
         <v>191</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53393,15 +53677,15 @@
         <v>192</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -53409,23 +53693,23 @@
         <v>193</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53433,7 +53717,7 @@
         <v>194</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -53441,7 +53725,7 @@
         <v>195</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53449,15 +53733,15 @@
         <v>196</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53465,15 +53749,15 @@
         <v>197</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53481,7 +53765,7 @@
         <v>198</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53489,7 +53773,7 @@
         <v>199</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53497,7 +53781,7 @@
         <v>200</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53505,7 +53789,7 @@
         <v>201</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53513,7 +53797,7 @@
         <v>202</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53521,47 +53805,47 @@
         <v>203</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -53569,55 +53853,55 @@
         <v>204</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -53625,55 +53909,55 @@
         <v>205</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B384" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53681,7 +53965,7 @@
         <v>206</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53689,7 +53973,7 @@
         <v>207</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53697,7 +53981,7 @@
         <v>208</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53705,55 +53989,55 @@
         <v>209</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -53761,63 +54045,63 @@
         <v>210</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53825,7 +54109,7 @@
         <v>211</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53833,39 +54117,39 @@
         <v>212</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -53873,7 +54157,7 @@
         <v>213</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -53881,7 +54165,7 @@
         <v>214</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -53889,7 +54173,7 @@
         <v>215</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53897,7 +54181,7 @@
         <v>216</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53905,7 +54189,7 @@
         <v>217</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53913,7 +54197,7 @@
         <v>218</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53921,7 +54205,7 @@
         <v>219</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53929,7 +54213,7 @@
         <v>220</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53937,7 +54221,7 @@
         <v>221</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -53945,7 +54229,7 @@
         <v>222</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -53953,7 +54237,7 @@
         <v>223</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53961,23 +54245,23 @@
         <v>224</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53985,7 +54269,7 @@
         <v>225</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53993,7 +54277,7 @@
         <v>226</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -54001,7 +54285,7 @@
         <v>227</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -54009,7 +54293,7 @@
         <v>228</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -54017,7 +54301,7 @@
         <v>229</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -54025,7 +54309,7 @@
         <v>230</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -54033,1039 +54317,1039 @@
         <v>231</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B461" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="B461" s="4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B534" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B547" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D8258E-E654-48EE-BFA2-438844E8C076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{036CC55F-9821-4A0A-BF0E-E99605BC5D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
   <si>
     <t>e001</t>
   </si>
@@ -795,14 +796,6 @@
   </si>
   <si>
     <t>e130e</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e110 Air Spirit&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter an air spirit. Only a magician, wizard, witch, or monk in your party will recognize it. If you cannot recognize it, this event ends. If you do recognize it, you can attempt communications if you wish.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die. If the roll equals or exceeds your wit and wiles, communication fails. The air spirit becomes confused and blows you off course. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for the direction (1-N, 2-NE, 3-SE, 4-S, 5-SW, 6-NW). Then roll one die for the number of hexes you are blown in that direction. Move your party to this new hex and continue with your daily actions
- &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-.&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the die roll is less than your wit and wiles, you successfully talk with the air spirit. It will help you in your journey. Roll two die and move up to that many hexes immediately. You will not get lost, and there are no new travel events except in the last hex where a normal travel event must be determined.</t>
   </si>
   <si>
     <t>e000a</t>
@@ -1832,66 +1825,6 @@
     <r>
       <t>&lt;Bold&gt;e307 Attacked&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Characters encountered strike first in combat against your party
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click anywhere to continue to combat.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CrossedSwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Combat' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e308 Surprised?&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If your wit and wiles equals or exceeds the die roll, you sense danger. Characters encountered strike first against your party in combat. Otherwise, your party is suprised by the encountered characters in combat
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click anywhere to continue to combat.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CrossedSwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Combat' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e310 Surprised&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is suprised by the encountered characters in combat
  &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Click anywhere to continue to combat.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
@@ -3126,37 +3059,6 @@
     <t>e340a</t>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e309 Surprised?&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If your wit and wiles exceeds the die roll, you sense danger. Characters encountere
-d strike first against your party in combat. Otherwise, your party is suprised by the encountered characters in combat
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click anywhere to continue to combat.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CrossedSwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='Combat' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>e331a</t>
   </si>
   <si>
@@ -4986,142 +4888,6 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='e323' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Bribe to pass (10gp)&lt;LineBreak/&gt;
  &lt;InlineUIContainer&gt;&lt;Button Content='e306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Attacked&lt;LineBreak/&gt;
  &lt;InlineUIContainer&gt;&lt;Button Content='e021' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Roll again
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll die:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21'  Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e020a Talk with Traveling Monk(s)&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Conversation&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Conversation &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Inquiry&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e336' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Plead comrades&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e337' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Plead comrades&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Suprised
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll die:
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
     </r>
@@ -25334,166 +25100,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e071a Talk Elven Band&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e072' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 0 Follow&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Inquiry&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Inquiry &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Conversation&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e072' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Follow&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Suprised&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7 Suprised
-&lt;LineBreak/&gt;
-                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Elf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;Roll die:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21'  Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e071c Fight Elven Band&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -33837,164 +33443,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e101a Evade Harpy&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Inquiry&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r329' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Looter&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Looter&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r308' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Surprised&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='r310' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Suprised
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll die:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21'  Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;
-                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Harpy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300'  Width='265' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;Bold&gt;e101 Harpy&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You encountered a Harpy, a bird-woman with combat skill 5, endurance 4, and wealth 4. Hapiers are known as dirty, nasty things. Occasionally, they have allied with human for mutual gain.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
@@ -34007,6 +33455,919 @@
 &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e101c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If the Harpy joins your party, she has her own wings and can travel airborne without a winged mount. She also counts as travelling on a normal mount because the wings allow her to make long 'airlifted' hops as well.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e308 Surprised?&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If your wit and wiles equals or exceeds the die roll, you sense danger. Characters encountered strike first against your party in combat. Otherwise, your party is surprised by the encountered characters in combat
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click anywhere to continue to combat.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CrossedSwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='Combat' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e309 Surprised?&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If your wit and wiles exceeds the die roll, you sense danger. Characters encountered strike first against your party in combat. Otherwise, your party is surprised by the encountered characters in combat
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click anywhere to continue to combat.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CrossedSwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='Combat' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e310 Surprised&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party is surprised by the encountered characters in combat
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click anywhere to continue to combat.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CrossedSwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='Combat' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e020a Talk with Traveling Monk(s)&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Conversation&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Conversation &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Inquiry&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e336' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Plead comrades&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e337' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Plead comrades&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surprised
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll die:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21'  Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e071a Talk Elven Band&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e072' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 0 Follow&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Inquiry&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Inquiry &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Conversation&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e072' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Follow&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surprised&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7 Surprised
+&lt;LineBreak/&gt;
+                                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;Roll die:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21'  Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e101a Evade Harpy&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Inquiry&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r329' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Looter&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r340' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Looter&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r308' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Surprised&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='r310' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surprised
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll die:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21'  Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' Visibility='Hidden'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;
+                             &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Harpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300'  Width='265' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>e110b</t>
+  </si>
+  <si>
+    <t>e110a</t>
+  </si>
+  <si>
+    <t>e110c</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e110c Air Spirit Talk&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You successfully talk with the air spirit. It will help you in your journey. Roll two die and move up to that many hexes immediately: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DiceRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You will not get lost, and there are no new travel events except in the last hex where a normal travel event must be determined.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpiritMove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e110 Air Spirit Unrecognized&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter an air spirit. Since you have no magician, wizard, witch, or monk in your party, you cannot recognize it. The event ends. Click image to continue. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e110a Air Spirit Recognized&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you have a magician, wizard, witch, or monk in your party, you recognize it. You can attempt to if you wish.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll equals or exceeds your wit and wiles, communication fails. See &lt;InlineUIContainer&gt;&lt;Button Content='e110b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll is less than your wit and wiles, communication succeeds. See &lt;InlineUIContainer&gt;&lt;Button Content='e110c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To continue without communicating with Air Sprint, click image.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpiritRecognized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e110b Air Spirit Confused&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The air spirit is confused and blows you off course. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for the direction (1-N, 2-NE, 3-SE, 4-S, 5-SW, 6-NW): &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for the number of hexes you are blown in that direction: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+Move your party to this new hex and continue with your daily action &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpiritConfused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -34473,10 +34834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:XFD559"/>
+  <dimension ref="A1:XFD562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34490,31 +34851,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:16384" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:16384" ht="390" x14ac:dyDescent="0.25">
@@ -34522,7 +34883,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -34530,7 +34891,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="285" x14ac:dyDescent="0.25">
@@ -34538,7 +34899,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -50928,7 +51289,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:16384" ht="165" x14ac:dyDescent="0.25">
@@ -50936,15 +51297,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:16384" ht="150" x14ac:dyDescent="0.25">
@@ -50952,7 +51313,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" spans="1:16384" ht="210" x14ac:dyDescent="0.25">
@@ -50960,7 +51321,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -50968,7 +51329,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="180" x14ac:dyDescent="0.25">
@@ -50976,7 +51337,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:16384" ht="240" x14ac:dyDescent="0.25">
@@ -50984,7 +51345,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:16384" ht="210" x14ac:dyDescent="0.25">
@@ -50992,7 +51353,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51000,7 +51361,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51008,7 +51369,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51016,7 +51377,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51024,7 +51385,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51032,7 +51393,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51040,7 +51401,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51048,7 +51409,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51056,7 +51417,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -51064,7 +51425,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51072,39 +51433,39 @@
         <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>906</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51112,7 +51473,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -51120,7 +51481,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51128,23 +51489,23 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51152,23 +51513,23 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -51176,23 +51537,23 @@
         <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -51200,7 +51561,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -51208,7 +51569,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -51216,7 +51577,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51224,23 +51585,23 @@
         <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51248,7 +51609,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51256,7 +51617,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51264,7 +51625,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51272,79 +51633,79 @@
         <v>34</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51352,7 +51713,7 @@
         <v>35</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51360,23 +51721,23 @@
         <v>36</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51384,7 +51745,7 @@
         <v>37</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -51392,7 +51753,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51400,7 +51761,7 @@
         <v>43</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51408,23 +51769,23 @@
         <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51432,7 +51793,7 @@
         <v>39</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51440,7 +51801,7 @@
         <v>40</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51448,7 +51809,7 @@
         <v>41</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51456,7 +51817,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51464,7 +51825,7 @@
         <v>42</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51472,7 +51833,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>451</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51480,7 +51841,7 @@
         <v>47</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51488,7 +51849,7 @@
         <v>48</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51496,7 +51857,7 @@
         <v>49</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51504,7 +51865,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51512,7 +51873,7 @@
         <v>51</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -51520,7 +51881,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51528,7 +51889,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -51536,7 +51897,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51544,7 +51905,7 @@
         <v>55</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51552,7 +51913,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51560,7 +51921,7 @@
         <v>57</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -51568,31 +51929,31 @@
         <v>58</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51600,15 +51961,15 @@
         <v>59</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -51616,15 +51977,15 @@
         <v>60</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -51632,7 +51993,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -51640,15 +52001,15 @@
         <v>62</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51656,7 +52017,7 @@
         <v>63</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -51664,7 +52025,7 @@
         <v>64</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51672,7 +52033,7 @@
         <v>65</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -51680,15 +52041,15 @@
         <v>66</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51696,15 +52057,15 @@
         <v>67</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -51712,23 +52073,23 @@
         <v>68</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -51736,23 +52097,23 @@
         <v>69</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51760,23 +52121,23 @@
         <v>70</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51784,7 +52145,7 @@
         <v>71</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51792,7 +52153,7 @@
         <v>72</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51800,15 +52161,15 @@
         <v>73</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -51816,7 +52177,7 @@
         <v>74</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -51824,15 +52185,15 @@
         <v>75</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -51840,7 +52201,7 @@
         <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -51848,23 +52209,23 @@
         <v>77</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -51872,23 +52233,23 @@
         <v>78</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -51896,23 +52257,23 @@
         <v>79</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -51920,7 +52281,7 @@
         <v>80</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -51928,87 +52289,87 @@
         <v>81</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52016,7 +52377,7 @@
         <v>82</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52024,15 +52385,15 @@
         <v>83</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52040,7 +52401,7 @@
         <v>84</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52048,23 +52409,23 @@
         <v>85</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52072,7 +52433,7 @@
         <v>86</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52080,23 +52441,23 @@
         <v>87</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -52104,71 +52465,71 @@
         <v>88</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52176,31 +52537,31 @@
         <v>89</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52208,23 +52569,23 @@
         <v>90</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52232,15 +52593,15 @@
         <v>91</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52248,7 +52609,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52256,7 +52617,7 @@
         <v>93</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -52264,7 +52625,7 @@
         <v>94</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52272,7 +52633,7 @@
         <v>95</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52280,55 +52641,55 @@
         <v>96</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52336,7 +52697,7 @@
         <v>97</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52344,7 +52705,7 @@
         <v>98</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52352,7 +52713,7 @@
         <v>99</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52360,7 +52721,7 @@
         <v>101</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52368,7 +52729,7 @@
         <v>100</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52376,7 +52737,7 @@
         <v>102</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52384,7 +52745,7 @@
         <v>103</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52392,7 +52753,7 @@
         <v>104</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52400,23 +52761,23 @@
         <v>105</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52424,7 +52785,7 @@
         <v>106</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52432,7 +52793,7 @@
         <v>107</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52440,15 +52801,15 @@
         <v>165</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52456,7 +52817,7 @@
         <v>108</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -52464,7 +52825,7 @@
         <v>109</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -52472,7 +52833,7 @@
         <v>110</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -52480,7 +52841,7 @@
         <v>166</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>940</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52488,7 +52849,7 @@
         <v>167</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52496,23 +52857,23 @@
         <v>168</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52520,39 +52881,39 @@
         <v>111</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52560,7 +52921,7 @@
         <v>112</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52568,7 +52929,7 @@
         <v>169</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -52576,7 +52937,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52584,7 +52945,7 @@
         <v>171</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52592,7 +52953,7 @@
         <v>113</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52600,23 +52961,23 @@
         <v>114</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52624,15 +52985,15 @@
         <v>115</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52640,15 +53001,15 @@
         <v>116</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52656,31 +53017,31 @@
         <v>117</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52688,23 +53049,23 @@
         <v>118</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52712,23 +53073,23 @@
         <v>119</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -52736,7 +53097,7 @@
         <v>120</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52744,7 +53105,7 @@
         <v>172</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52752,7 +53113,7 @@
         <v>173</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52760,7 +53121,7 @@
         <v>174</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52768,7 +53129,7 @@
         <v>121</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52776,15 +53137,15 @@
         <v>122</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -52792,23 +53153,23 @@
         <v>123</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52816,7 +53177,7 @@
         <v>124</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52824,15 +53185,15 @@
         <v>125</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -52840,7 +53201,7 @@
         <v>126</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52848,7 +53209,7 @@
         <v>127</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52856,7 +53217,7 @@
         <v>128</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52864,7 +53225,7 @@
         <v>129</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -52872,7 +53233,7 @@
         <v>130</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52880,23 +53241,23 @@
         <v>131</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52904,7 +53265,7 @@
         <v>132</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52912,15 +53273,15 @@
         <v>133</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -52928,23 +53289,23 @@
         <v>134</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52952,15 +53313,15 @@
         <v>135</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -52968,7 +53329,7 @@
         <v>136</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -52976,7 +53337,7 @@
         <v>137</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52984,7 +53345,7 @@
         <v>232</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -52992,7 +53353,7 @@
         <v>233</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -53000,7 +53361,7 @@
         <v>138</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53008,7 +53369,7 @@
         <v>234</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53016,7 +53377,7 @@
         <v>235</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53024,7 +53385,7 @@
         <v>139</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53032,7 +53393,7 @@
         <v>239</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53040,7 +53401,7 @@
         <v>240</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53048,7 +53409,7 @@
         <v>241</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53056,7 +53417,7 @@
         <v>140</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53072,7 +53433,7 @@
         <v>237</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53080,7 +53441,7 @@
         <v>238</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -53088,7 +53449,7 @@
         <v>141</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -53096,7 +53457,7 @@
         <v>142</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53104,7 +53465,7 @@
         <v>143</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -53112,7 +53473,7 @@
         <v>144</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53120,7 +53481,7 @@
         <v>242</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53128,7 +53489,7 @@
         <v>145</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53136,7 +53497,7 @@
         <v>146</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -53144,7 +53505,7 @@
         <v>147</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53152,2209 +53513,2233 @@
         <v>148</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
+      <c r="B291" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B292" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B291" s="4" t="s">
+    <row r="299" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B299" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B292" s="4" t="s">
+    <row r="300" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+    <row r="301" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B298" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+      <c r="B301" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
+      <c r="B302" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
+      <c r="B303" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+      <c r="B304" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B302" s="4" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
+      <c r="B305" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B303" s="4" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
+      <c r="B306" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B304" s="4" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
+      <c r="B307" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+      <c r="B308" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
+      <c r="B309" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B312" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="B307" s="4" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
+    </row>
+    <row r="313" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="B308" s="4" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
+    </row>
+    <row r="314" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B311" s="4" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
+      <c r="B314" s="4" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
+      <c r="B315" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B313" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C313" s="1"/>
-    </row>
-    <row r="314" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
+      <c r="B316" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C314" s="1"/>
-    </row>
-    <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C315" s="1"/>
-    </row>
-    <row r="316" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C316" s="1"/>
-    </row>
-    <row r="317" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="B317" s="4" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>542</v>
+        <v>1064</v>
       </c>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1068</v>
-      </c>
+        <v>1056</v>
+      </c>
+      <c r="C319" s="1"/>
     </row>
     <row r="320" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B327" s="4" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C321" s="1"/>
-    </row>
-    <row r="322" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C322" s="1"/>
-    </row>
-    <row r="323" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C323" s="1"/>
-    </row>
-    <row r="324" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C324" s="1"/>
-    </row>
-    <row r="325" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="C325" s="1"/>
-    </row>
-    <row r="326" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+      <c r="B328" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="C326" s="1"/>
-    </row>
-    <row r="327" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="C327" s="1"/>
-    </row>
-    <row r="328" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="B329" s="4" t="s">
-        <v>882</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="C329" s="1"/>
     </row>
     <row r="330" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>879</v>
+        <v>251</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>880</v>
+        <v>252</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B333" s="4" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="B336" s="4" t="s">
-        <v>324</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B337" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+      <c r="B340" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B338" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+      <c r="B341" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B339" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
+    </row>
+    <row r="343" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B340" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
+      <c r="B343" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B341" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
+      <c r="B344" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B342" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+      <c r="B345" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B347" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B351" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
+    <row r="352" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B352" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B347" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
+    </row>
+    <row r="353" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B350" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B351" s="4" t="s">
+      <c r="B353" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>646</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B365" s="4" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+      <c r="B368" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B366" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="B369" s="4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>204</v>
+        <v>622</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B373" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+      <c r="B380" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B374" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+      <c r="B381" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B376" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
+    </row>
+    <row r="382" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B379" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+      <c r="B382" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B381" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>624</v>
+        <v>921</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B386" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
+      <c r="B389" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B387" s="4" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
+      <c r="B390" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B388" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+      <c r="B391" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B389" s="4" t="s">
+      <c r="B392" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B398" s="4" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B395" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
+    <row r="399" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B396" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B397" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+      <c r="B399" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B401" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="B400" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B404" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
+      <c r="B407" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B405" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
+      <c r="B408" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B409" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B406" s="4" t="s">
+    </row>
+    <row r="410" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B411" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B407" s="4" t="s">
+    <row r="412" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B409" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+    <row r="413" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B410" s="4" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+      <c r="B413" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B411" s="4" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
+      <c r="B414" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B412" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="B415" s="4" t="s">
-        <v>551</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B416" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A417" s="6" t="s">
+      <c r="B419" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A420" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B417" s="4" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
+      <c r="B420" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B418" s="4" t="s">
+      <c r="B421" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B429" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B419" s="4" t="s">
+    <row r="430" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B430" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B420" s="4" t="s">
+    <row r="431" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B431" s="4" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A421" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B422" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B423" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B424" s="4" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A425" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B430" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B431" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>459</v>
+        <v>230</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>461</v>
+        <v>231</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>609</v>
+        <v>257</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>610</v>
+        <v>454</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>822</v>
+        <v>456</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>321</v>
+        <v>605</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>322</v>
+        <v>817</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>1099</v>
+        <v>320</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B443" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A444" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
+      <c r="B451" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B445" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B447" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B448" s="4" t="s">
+      <c r="B452" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B449" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B450" s="4" t="s">
+      <c r="B455" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B456" s="4" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B451" s="4" t="s">
+    <row r="457" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B453" s="4" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B454" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B455" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B456" s="4" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
+      <c r="B457" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B459" s="4" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
+      <c r="B464" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B461" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B462" s="4" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B463" s="4" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B464" s="4" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="B465" s="4" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>898</v>
+        <v>643</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>707</v>
+        <v>840</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B480" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>1073</v>
+        <v>698</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B486" s="4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B487" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B488" s="4" t="s">
-        <v>846</v>
+        <v>716</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>570</v>
+        <v>752</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>359</v>
+        <v>565</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>440</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>317</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>441</v>
+        <v>279</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B506" s="4" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B507" s="4" t="s">
-        <v>830</v>
+        <v>315</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>833</v>
+        <v>438</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>831</v>
+        <v>260</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>832</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>282</v>
+        <v>486</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>311</v>
+        <v>826</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A515" s="2" t="s">
+      <c r="B518" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B515" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="B519" s="1" t="s">
-        <v>418</v>
+        <v>898</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
+      <c r="B524" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
+      <c r="B525" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B522" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
+      <c r="B526" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
+      <c r="B527" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B524" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A525" s="2" t="s">
+      <c r="B528" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
+      <c r="B529" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
+      <c r="B530" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B527" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B529" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A530" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
+      <c r="B534" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B531" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
+      <c r="B536" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B537" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B534" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>766</v>
+        <v>304</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>402</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>403</v>
+        <v>761</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>518</v>
+        <v>727</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>767</v>
+        <v>398</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>768</v>
+        <v>405</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B552" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
+      <c r="B556" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B553" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
+      <c r="B559" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B556" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B557" s="4" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B558" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B559" s="4" t="s">
-        <v>1010</v>
+    </row>
+    <row r="560" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B556">
-    <sortCondition ref="A1:A556"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B559">
+    <sortCondition ref="A1:A559"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Events.xlsx
+++ b/Config/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{036CC55F-9821-4A0A-BF0E-E99605BC5D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C3B11-8CA4-4E75-8FE0-C1379E9ED2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Events" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1126">
   <si>
     <t>e001</t>
   </si>
@@ -32627,15 +32626,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;Bold&gt;e111 Storm Demon&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a powerful demon of storms which attacks your party. If you have any magicians, wizards, witches, priests, or monks in your party, each can attempt to stop the demon by rolling one die. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;A result of six means the demon attack is blocked. Any other result means no effect on the attack.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you are unable to block the attack, your entire party is blown away to be lost or killed. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash in an adjacent hex. Roll one die to determine which one: 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;     1-N, 2-NE, 3-SE, 4-S, 5-SW, 6-NW. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your winged mount is killed, and you roll one die for the number of wounds suffered. Your wealth and possessions you carried are intact. The rest of your party is lost.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;e114 Eagle Hunt&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Eagles are hunting and they join your party for the hunt. This ends all travel for today. For the evening meal
  &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
@@ -34148,6 +34138,137 @@
   </si>
   <si>
     <r>
+      <t>&lt;Bold&gt;e110b Air Spirit Confused&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The air spirit is confused and blows you off course. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for the direction (1-N, 2-NE, 3-SE, 4-S, 5-SW, 6-NW): &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for the number of hexes you are blown in that direction: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+Move your party to this new hex and continue with your daily action &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpiritConfused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>&lt;Bold&gt;e110a Air Spirit Recognized&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you have a magician, wizard, witch, or monk in your party, you recognize it. You can attempt to if you wish.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -34191,9 +34312,9 @@
         <scheme val="minor"/>
       </rPr>
       <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll equals or exceeds your wit and wiles, communication fails. See &lt;InlineUIContainer&gt;&lt;Button Content='e110b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll is less than your wit and wiles, communication succeeds. See &lt;InlineUIContainer&gt;&lt;Button Content='e110c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To continue without communicating with Air Sprint, click image.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll &gt;= wit and wiles, communication fails. See &lt;InlineUIContainer&gt;&lt;Button Content='e110b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;Roll &lt; wit and wiles, communication succeeds. See &lt;InlineUIContainer&gt;&lt;Button Content='e110c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To continue without communicating with air sprint, click image.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                               &lt;InlineUIContainer&gt;&lt;Image Name='</t>
     </r>
@@ -34205,7 +34326,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>AirSpiritRecognized</t>
+      <t>EncounterEnd</t>
     </r>
     <r>
       <rPr>
@@ -34239,104 +34360,27 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e110b Air Spirit Confused&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The air spirit is confused and blows you off course. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for the direction (1-N, 2-NE, 3-SE, 4-S, 5-SW, 6-NW): &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for the number of hexes you are blown in that direction: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-Move your party to this new hex and continue with your daily action &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+    <t>e111a</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e111 Storm Demon Attacks&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a powerful demon of storms which attacks your party. Since you have no magicians, wizards, witches, priests, or monks in your party, it cannot be repeled. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You are unable to block the attack, and your entire party is blown away to be lost or killed. Your winged mount is killed, but your carried wealth and possessions are intact. The rest of your party is lost.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash in an adjacent hex. Roll one die for the number of wounds suffered:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/dieRoll.gif' Name='DieRoll' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                               &lt;InlineUIContainer&gt;&lt;Image Name='</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AirSpiritConfused</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StormDemonAttack</t>
     </r>
     <r>
       <rPr>
@@ -34351,12 +34395,63 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AirSpirit</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StormDemon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e111a Storm Demon Attacks&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a powerful demon of storms which attacks your party. Since you have magicians, wizards, witches, priests, or monks in your party; you may be able to repel it.  
+Each can attempt to stop the demon by rolling one die. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;A result of six means the demon attack is blocked. Any other result means no effect on the attack. See &lt;InlineUIContainer&gt;&lt;Button Content='e111' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click image to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StormDemonRepel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StormDemon</t>
     </r>
     <r>
       <rPr>
@@ -34834,10 +34929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:XFD562"/>
+  <dimension ref="A1:XFD563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51833,7 +51928,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -52841,7 +52936,7 @@
         <v>166</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53001,7 +53096,7 @@
         <v>116</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -53065,7 +53160,7 @@
         <v>966</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53417,7 +53512,7 @@
         <v>140</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -53425,7 +53520,7 @@
         <v>236</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53433,7 +53528,7 @@
         <v>237</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -53441,7 +53536,7 @@
         <v>238</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -53473,7 +53568,7 @@
         <v>144</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53481,7 +53576,7 @@
         <v>242</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -53489,7 +53584,7 @@
         <v>145</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -53497,7 +53592,7 @@
         <v>146</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -53505,7 +53600,7 @@
         <v>147</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -53513,7 +53608,7 @@
         <v>148</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -53521,12 +53616,12 @@
         <v>149</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>1122</v>
@@ -53534,2212 +53629,2220 @@
     </row>
     <row r="289" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B291" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+    <row r="299" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B299" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+    <row r="300" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B300" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
+    <row r="301" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B301" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
+    <row r="302" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B302" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+    <row r="303" spans="1:2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B303" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
+    <row r="304" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B304" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
+    <row r="305" spans="1:3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B305" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
+    <row r="306" spans="1:3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B306" s="4" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+    <row r="307" spans="1:3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B307" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
+    <row r="308" spans="1:3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B308" s="4" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
+    <row r="309" spans="1:3" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B309" s="4" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
+    <row r="310" spans="1:3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B310" s="4" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
+    <row r="311" spans="1:3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B311" s="4" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
+    <row r="312" spans="1:3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B312" s="4" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
+    <row r="313" spans="1:3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B313" s="4" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
+    <row r="314" spans="1:3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B314" s="4" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
+    <row r="315" spans="1:3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B315" s="4" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
+    <row r="316" spans="1:3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B316" s="4" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
+    <row r="317" spans="1:3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B317" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C316" s="1"/>
-    </row>
-    <row r="317" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="1:3" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B318" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="C317" s="1"/>
-    </row>
-    <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B319" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="C318" s="1"/>
-    </row>
-    <row r="319" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="1:3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B320" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="C319" s="1"/>
-    </row>
-    <row r="320" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="1:3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B321" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="C320" s="1"/>
-    </row>
-    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="1:3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B322" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C321" s="1"/>
-    </row>
-    <row r="322" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="1:3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B323" s="4" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
+    <row r="324" spans="1:3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B324" s="4" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
+    <row r="325" spans="1:3" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B325" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="C324" s="1"/>
-    </row>
-    <row r="325" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="1:3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B326" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="C325" s="1"/>
-    </row>
-    <row r="326" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="1:3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B327" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="C326" s="1"/>
-    </row>
-    <row r="327" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="1:3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B328" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="C327" s="1"/>
-    </row>
-    <row r="328" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:3" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B329" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="C328" s="1"/>
-    </row>
-    <row r="329" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="1:3" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B330" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="C329" s="1"/>
-    </row>
-    <row r="330" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="1:3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="B331" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="C330" s="1"/>
-    </row>
-    <row r="331" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="1:3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B331" s="4" t="s">
+      <c r="B332" s="4" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
+    <row r="333" spans="1:3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B333" s="4" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
+    <row r="334" spans="1:3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B334" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
+    <row r="335" spans="1:3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B335" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
+    <row r="336" spans="1:3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B336" s="4" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
+    <row r="337" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B337" s="4" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
+    <row r="338" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B338" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+    <row r="339" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B339" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+    <row r="340" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B340" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
+    <row r="341" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B341" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
+    <row r="342" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B342" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
+    <row r="343" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B343" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
+    <row r="344" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="B344" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+    <row r="345" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B345" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
+    <row r="346" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B346" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
+    <row r="347" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B347" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
+    <row r="348" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B348" s="4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
+    <row r="349" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B349" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
+    <row r="350" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B350" s="4" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
+    <row r="351" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B351" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+    <row r="352" spans="1:2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B352" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+    <row r="353" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B353" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
+    <row r="354" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B354" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+    <row r="355" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B355" s="4" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+    <row r="356" spans="1:2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="B356" s="4" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+    <row r="357" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B357" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+    <row r="358" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B358" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
+    <row r="359" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B359" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+    <row r="360" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B360" s="4" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+    <row r="361" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B361" s="4" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
+    <row r="362" spans="1:2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B362" s="4" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
+    <row r="363" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B363" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+    <row r="364" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B364" s="4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
+    <row r="365" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B365" s="4" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
+    <row r="366" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B366" s="4" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+    <row r="367" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B367" s="4" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
+    <row r="368" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B368" s="4" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+    <row r="369" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B369" s="4" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+    <row r="370" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B369" s="4" t="s">
+      <c r="B370" s="4" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
+    <row r="371" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B370" s="4" t="s">
+      <c r="B371" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
+    <row r="372" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B371" s="4" t="s">
+      <c r="B372" s="4" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
+    <row r="373" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B372" s="4" t="s">
+      <c r="B373" s="4" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
+    <row r="374" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B374" s="4" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+    <row r="375" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="B375" s="4" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
+    <row r="376" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="B376" s="4" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+    <row r="377" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="B377" s="4" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+    <row r="378" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B377" s="4" t="s">
+      <c r="B378" s="4" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
+    <row r="379" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B378" s="4" t="s">
+      <c r="B379" s="4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
+    <row r="380" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B379" s="4" t="s">
+      <c r="B380" s="4" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+    <row r="381" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="B381" s="4" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+    <row r="382" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B381" s="4" t="s">
+      <c r="B382" s="4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+    <row r="383" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B382" s="4" t="s">
+      <c r="B383" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+    <row r="384" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B384" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+    <row r="385" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B384" s="4" t="s">
+      <c r="B385" s="4" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
+    <row r="386" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B386" s="4" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
+    <row r="387" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B387" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
+    <row r="388" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B387" s="4" t="s">
+      <c r="B388" s="4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
+    <row r="389" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B388" s="4" t="s">
+      <c r="B389" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+    <row r="390" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B389" s="4" t="s">
+      <c r="B390" s="4" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
+    <row r="391" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B390" s="4" t="s">
+      <c r="B391" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+    <row r="392" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B391" s="4" t="s">
+      <c r="B392" s="4" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
+    <row r="393" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="B393" s="4" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
+    <row r="394" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="B394" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
+    <row r="395" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B395" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
+    <row r="396" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B396" s="4" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
+    <row r="397" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B396" s="4" t="s">
+      <c r="B397" s="4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
+    <row r="398" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B398" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+    <row r="399" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B398" s="4" t="s">
+      <c r="B399" s="4" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
+    <row r="400" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B400" s="4" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
+    <row r="401" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B401" s="4" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
+    <row r="402" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B402" s="4" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
+    <row r="403" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B402" s="4" t="s">
+      <c r="B403" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
+    <row r="404" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B403" s="4" t="s">
+      <c r="B404" s="4" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
+    <row r="405" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B404" s="4" t="s">
+      <c r="B405" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
+    <row r="406" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B405" s="4" t="s">
+      <c r="B406" s="4" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
+    <row r="407" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B407" s="4" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
+    <row r="408" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B408" s="4" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+    <row r="409" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B408" s="4" t="s">
+      <c r="B409" s="4" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
+    <row r="410" spans="1:2" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B409" s="4" t="s">
+      <c r="B410" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+    <row r="411" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B411" s="4" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+    <row r="412" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B412" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
+    <row r="413" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B412" s="4" t="s">
+      <c r="B413" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
+    <row r="414" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B413" s="4" t="s">
+      <c r="B414" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
+    <row r="415" spans="1:2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B415" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
+    <row r="416" spans="1:2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B416" s="4" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+    <row r="417" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B417" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
+    <row r="418" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B418" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
+    <row r="419" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B418" s="4" t="s">
+      <c r="B419" s="4" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
+    <row r="420" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B420" s="4" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A420" s="6" t="s">
+    <row r="421" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A421" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B420" s="4" t="s">
+      <c r="B421" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A421" s="2" t="s">
+    <row r="422" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="B422" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
+    <row r="423" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B423" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
+    <row r="424" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B423" s="4" t="s">
+      <c r="B424" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
+    <row r="425" spans="1:2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B424" s="4" t="s">
+      <c r="B425" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A425" s="2" t="s">
+    <row r="426" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B425" s="4" t="s">
+      <c r="B426" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
+    <row r="427" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B426" s="4" t="s">
+      <c r="B427" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
+    <row r="428" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B427" s="4" t="s">
+      <c r="B428" s="4" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
+    <row r="429" spans="1:2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B428" s="4" t="s">
+      <c r="B429" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
+    <row r="430" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B429" s="4" t="s">
+      <c r="B430" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
+    <row r="431" spans="1:2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B430" s="4" t="s">
+      <c r="B431" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
+    <row r="432" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B431" s="4" t="s">
+      <c r="B432" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
+    <row r="433" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B432" s="4" t="s">
+      <c r="B433" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
+    <row r="434" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B433" s="4" t="s">
+      <c r="B434" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
+    <row r="435" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="B435" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
+    <row r="436" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B435" s="4" t="s">
+      <c r="B436" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
+    <row r="437" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B437" s="4" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
+    <row r="438" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B437" s="4" t="s">
+      <c r="B438" s="4" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
+    <row r="439" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B439" s="4" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
+    <row r="440" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B439" s="4" t="s">
+      <c r="B440" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
+    <row r="441" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B440" s="4" t="s">
+      <c r="B441" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
+    <row r="442" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B441" s="4" t="s">
+      <c r="B442" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
+    <row r="443" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B442" s="4" t="s">
+      <c r="B443" s="4" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
+    <row r="444" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B443" s="4" t="s">
+      <c r="B444" s="4" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A444" s="2" t="s">
+    <row r="445" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B444" s="4" t="s">
+      <c r="B445" s="4" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
+    <row r="446" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B445" s="4" t="s">
+      <c r="B446" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
+    <row r="447" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B446" s="4" t="s">
+      <c r="B447" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
+    <row r="448" spans="1:2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B447" s="4" t="s">
+      <c r="B448" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
+    <row r="449" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B448" s="4" t="s">
+      <c r="B449" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
+    <row r="450" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B449" s="4" t="s">
+      <c r="B450" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
+    <row r="451" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B450" s="4" t="s">
+      <c r="B451" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
+    <row r="452" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B451" s="4" t="s">
+      <c r="B452" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
+    <row r="453" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B452" s="4" t="s">
+      <c r="B453" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
+    <row r="454" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B453" s="4" t="s">
+      <c r="B454" s="4" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
+    <row r="455" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B454" s="4" t="s">
+      <c r="B455" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
+    <row r="456" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B455" s="4" t="s">
+      <c r="B456" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
+    <row r="457" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B456" s="4" t="s">
+      <c r="B457" s="4" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
+    <row r="458" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B457" s="4" t="s">
+      <c r="B458" s="4" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
+    <row r="459" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B458" s="4" t="s">
+      <c r="B459" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A459" s="2" t="s">
+    <row r="460" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B459" s="4" t="s">
+      <c r="B460" s="4" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
+    <row r="461" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B460" s="4" t="s">
+      <c r="B461" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
+    <row r="462" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B461" s="4" t="s">
+      <c r="B462" s="4" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
+    <row r="463" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B462" s="4" t="s">
+      <c r="B463" s="4" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
+    <row r="464" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B463" s="4" t="s">
+      <c r="B464" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
+    <row r="465" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B464" s="4" t="s">
+      <c r="B465" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
+    <row r="466" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B465" s="4" t="s">
+      <c r="B466" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
+    <row r="467" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B466" s="4" t="s">
+      <c r="B467" s="4" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
+    <row r="468" spans="1:2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B467" s="4" t="s">
+      <c r="B468" s="4" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
+    <row r="469" spans="1:2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B468" s="4" t="s">
+      <c r="B469" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
+    <row r="470" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B469" s="4" t="s">
+      <c r="B470" s="4" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
+    <row r="471" spans="1:2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B470" s="4" t="s">
+      <c r="B471" s="4" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A471" s="2" t="s">
+    <row r="472" spans="1:2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B472" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
+    <row r="473" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B473" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
+    <row r="474" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B474" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
+    <row r="475" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B475" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
+    <row r="476" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B476" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
+    <row r="477" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B477" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
+    <row r="478" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B478" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
+    <row r="479" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B479" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
+    <row r="480" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
+    <row r="481" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
+    <row r="482" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
+    <row r="483" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B483" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
+    <row r="484" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
+    <row r="485" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
+    <row r="486" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
+    <row r="487" spans="1:2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B487" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A487" s="2" t="s">
+    <row r="488" spans="1:2" customFormat="1" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B488" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
+    <row r="489" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B489" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
+    <row r="490" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="B490" s="4" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
+    <row r="491" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="B491" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
+    <row r="492" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="B492" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
+    <row r="493" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B492" s="4" t="s">
+      <c r="B493" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A493" s="2" t="s">
+    <row r="494" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B494" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
+    <row r="495" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="B495" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
+    <row r="496" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B496" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
+    <row r="497" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="B497" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A497" s="2" t="s">
+    <row r="498" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B498" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A498" s="2" t="s">
+    <row r="499" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="B499" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A499" s="2" t="s">
+    <row r="500" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="B500" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
+    <row r="501" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="B501" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A501" s="2" t="s">
+    <row r="502" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B502" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A502" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B502" s="1" t="s">
+    <row r="504" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B504" s="1" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A503" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
+    <row r="505" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="B505" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A505" s="2" t="s">
+    <row r="506" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
+    <row r="507" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
+    <row r="508" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B508" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
+    <row r="509" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B509" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A509" s="2" t="s">
+    <row r="510" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B509" s="4" t="s">
+      <c r="B510" s="4" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
+    <row r="511" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B510" s="4" t="s">
+      <c r="B511" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A511" s="2" t="s">
+    <row r="512" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
+    <row r="513" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B512" s="4" t="s">
+      <c r="B513" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
+    <row r="514" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B514" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A514" s="2" t="s">
+    <row r="515" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A515" s="2" t="s">
+    <row r="516" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B516" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
+    <row r="517" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B517" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
+    <row r="518" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
+    <row r="519" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
+    <row r="520" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="B520" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
+    <row r="521" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
+    <row r="522" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="B522" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
+    <row r="523" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B523" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
+    <row r="524" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B524" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
+    <row r="525" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B524" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A525" s="2" t="s">
+    <row r="526" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
+    <row r="527" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
+    <row r="528" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="B528" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
+    <row r="529" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="B529" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
+    <row r="530" spans="1:2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A530" s="2" t="s">
+    <row r="531" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
+    <row r="532" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
+    <row r="533" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B532" s="4" t="s">
+      <c r="B533" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
+    <row r="534" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B533" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
+    <row r="535" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B535" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
+    <row r="536" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
+    <row r="537" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
+    <row r="538" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="B538" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
+    <row r="539" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
+    <row r="540" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="B540" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
+    <row r="541" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B541" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
+    <row r="542" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B542" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
+    <row r="543" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B542" s="1" t="s">
+      <c r="B543" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
+    <row r="544" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="B544" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
+    <row r="545" spans="1:2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B545" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
+    <row r="546" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B545" s="1" t="s">
+      <c r="B546" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
+    <row r="547" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="B547" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
+    <row r="548" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B547" s="1" t="s">
+      <c r="B548" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
+    <row r="549" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B548" s="1" t="s">
+      <c r="B549" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
+    <row r="550" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
+    <row r="551" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B550" s="1" t="s">
+      <c r="B551" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
+    <row r="552" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B552" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
+    <row r="553" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B552" s="1" t="s">
+      <c r="B553" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
+    <row r="554" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B553" s="1" t="s">
+      <c r="B554" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
+    <row r="555" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B554" s="1" t="s">
+      <c r="B555" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
+    <row r="556" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B555" s="4" t="s">
+      <c r="B556" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
+    <row r="557" spans="1:2" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B556" s="1" t="s">
+      <c r="B557" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
+    <row r="558" spans="1:2" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B557" s="1" t="s">
+      <c r="B558" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
+    <row r="559" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="B559" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
+    <row r="560" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="B560" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
+    <row r="561" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B560" s="4" t="s">
+      <c r="B561" s="4" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A561" s="2" t="s">
+    <row r="562" spans="1:2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B561" s="4" t="s">
+      <c r="B562" s="4" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
+    <row r="563" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B562" s="4" t="s">
+      <c r="B563" s="4" t="s">
         <v>1004</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B559">
-    <sortCondition ref="A1:A559"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B560">
+    <sortCondition ref="A1:A560"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
